--- a/Squads/E0/Everton_West Ham_squad.xlsx
+++ b/Squads/E0/Everton_West Ham_squad.xlsx
@@ -93,139 +93,139 @@
     <t>74</t>
   </si>
   <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>832</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>1817</t>
-  </si>
-  <si>
-    <t>2519</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>2295</t>
-  </si>
-  <si>
-    <t>1595</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>1839</t>
-  </si>
-  <si>
-    <t>2466</t>
-  </si>
-  <si>
-    <t>1769</t>
-  </si>
-  <si>
-    <t>1902</t>
+    <t>330</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>2529</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2242</t>
+  </si>
+  <si>
+    <t>2476</t>
+  </si>
+  <si>
+    <t>1777</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>1897</t>
-  </si>
-  <si>
-    <t>2232</t>
-  </si>
-  <si>
-    <t>2554</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>884</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>1522</t>
-  </si>
-  <si>
-    <t>1660</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1494</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1774</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>1627</t>
-  </si>
-  <si>
-    <t>1748</t>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>2564</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1668</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1756</t>
   </si>
   <si>
     <t>Edson Álvarez</t>
@@ -264,27 +264,27 @@
     <t>Nathan Patterson</t>
   </si>
   <si>
+    <t>Jordan Pickford</t>
+  </si>
+  <si>
+    <t>Michail Antonio</t>
+  </si>
+  <si>
+    <t>Tomáš Souček</t>
+  </si>
+  <si>
     <t>James Ward-Prowse</t>
   </si>
   <si>
     <t>Amadou Onana</t>
   </si>
   <si>
-    <t>Jordan Pickford</t>
-  </si>
-  <si>
     <t>Nayef Aguerd</t>
   </si>
   <si>
-    <t>Michail Antonio</t>
-  </si>
-  <si>
     <t>Kalvin Phillips</t>
   </si>
   <si>
-    <t>Tomáš Souček</t>
-  </si>
-  <si>
     <t>Kurt Zouma</t>
   </si>
   <si>
@@ -393,15 +393,15 @@
     <t>sct SCO</t>
   </si>
   <si>
+    <t>jm JAM</t>
+  </si>
+  <si>
     <t>be BEL</t>
   </si>
   <si>
     <t>ma MAR</t>
   </si>
   <si>
-    <t>jm JAM</t>
-  </si>
-  <si>
     <t>fr FRA</t>
   </si>
   <si>
@@ -468,142 +468,142 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>26-126</t>
-  </si>
-  <si>
-    <t>21-245</t>
-  </si>
-  <si>
-    <t>34-154</t>
-  </si>
-  <si>
-    <t>31-189</t>
-  </si>
-  <si>
-    <t>29-208</t>
-  </si>
-  <si>
-    <t>38-233</t>
-  </si>
-  <si>
-    <t>26-184</t>
-  </si>
-  <si>
-    <t>22-351</t>
-  </si>
-  <si>
-    <t>31-100</t>
-  </si>
-  <si>
-    <t>23-209</t>
-  </si>
-  <si>
-    <t>31-057</t>
-  </si>
-  <si>
-    <t>22-134</t>
-  </si>
-  <si>
-    <t>29-118</t>
-  </si>
-  <si>
-    <t>22-195</t>
-  </si>
-  <si>
-    <t>29-357</t>
-  </si>
-  <si>
-    <t>27-334</t>
-  </si>
-  <si>
-    <t>33-336</t>
-  </si>
-  <si>
-    <t>28-087</t>
-  </si>
-  <si>
-    <t>29-000</t>
-  </si>
-  <si>
-    <t>29-123</t>
-  </si>
-  <si>
-    <t>26-027</t>
-  </si>
-  <si>
-    <t>26-043</t>
-  </si>
-  <si>
-    <t>30-212</t>
-  </si>
-  <si>
-    <t>27-069</t>
-  </si>
-  <si>
-    <t>26-348</t>
-  </si>
-  <si>
-    <t>19-279</t>
-  </si>
-  <si>
-    <t>21-055</t>
-  </si>
-  <si>
-    <t>31-047</t>
-  </si>
-  <si>
-    <t>24-097</t>
-  </si>
-  <si>
-    <t>24-274</t>
-  </si>
-  <si>
-    <t>31-000</t>
-  </si>
-  <si>
-    <t>28-201</t>
-  </si>
-  <si>
-    <t>34-074</t>
-  </si>
-  <si>
-    <t>31-219</t>
-  </si>
-  <si>
-    <t>24-034</t>
-  </si>
-  <si>
-    <t>26-078</t>
-  </si>
-  <si>
-    <t>21-061</t>
-  </si>
-  <si>
-    <t>35-139</t>
-  </si>
-  <si>
-    <t>27-027</t>
-  </si>
-  <si>
-    <t>27-099</t>
-  </si>
-  <si>
-    <t>20-360</t>
-  </si>
-  <si>
-    <t>27-153</t>
-  </si>
-  <si>
-    <t>38-315</t>
-  </si>
-  <si>
-    <t>28-005</t>
-  </si>
-  <si>
-    <t>19-125</t>
-  </si>
-  <si>
-    <t>35-280</t>
+    <t>26-133</t>
+  </si>
+  <si>
+    <t>21-252</t>
+  </si>
+  <si>
+    <t>34-161</t>
+  </si>
+  <si>
+    <t>31-196</t>
+  </si>
+  <si>
+    <t>29-215</t>
+  </si>
+  <si>
+    <t>38-240</t>
+  </si>
+  <si>
+    <t>26-191</t>
+  </si>
+  <si>
+    <t>22-358</t>
+  </si>
+  <si>
+    <t>31-107</t>
+  </si>
+  <si>
+    <t>23-216</t>
+  </si>
+  <si>
+    <t>31-064</t>
+  </si>
+  <si>
+    <t>22-141</t>
+  </si>
+  <si>
+    <t>29-364</t>
+  </si>
+  <si>
+    <t>33-343</t>
+  </si>
+  <si>
+    <t>29-007</t>
+  </si>
+  <si>
+    <t>29-125</t>
+  </si>
+  <si>
+    <t>22-202</t>
+  </si>
+  <si>
+    <t>27-341</t>
+  </si>
+  <si>
+    <t>28-094</t>
+  </si>
+  <si>
+    <t>29-130</t>
+  </si>
+  <si>
+    <t>26-034</t>
+  </si>
+  <si>
+    <t>26-050</t>
+  </si>
+  <si>
+    <t>30-219</t>
+  </si>
+  <si>
+    <t>27-076</t>
+  </si>
+  <si>
+    <t>26-355</t>
+  </si>
+  <si>
+    <t>19-286</t>
+  </si>
+  <si>
+    <t>21-062</t>
+  </si>
+  <si>
+    <t>31-054</t>
+  </si>
+  <si>
+    <t>24-104</t>
+  </si>
+  <si>
+    <t>24-281</t>
+  </si>
+  <si>
+    <t>31-007</t>
+  </si>
+  <si>
+    <t>28-208</t>
+  </si>
+  <si>
+    <t>34-081</t>
+  </si>
+  <si>
+    <t>31-226</t>
+  </si>
+  <si>
+    <t>24-041</t>
+  </si>
+  <si>
+    <t>26-085</t>
+  </si>
+  <si>
+    <t>21-068</t>
+  </si>
+  <si>
+    <t>35-146</t>
+  </si>
+  <si>
+    <t>27-034</t>
+  </si>
+  <si>
+    <t>27-106</t>
+  </si>
+  <si>
+    <t>21-001</t>
+  </si>
+  <si>
+    <t>27-160</t>
+  </si>
+  <si>
+    <t>38-322</t>
+  </si>
+  <si>
+    <t>28-012</t>
+  </si>
+  <si>
+    <t>19-132</t>
+  </si>
+  <si>
+    <t>35-287</t>
   </si>
   <si>
     <t>1997</t>
@@ -633,13 +633,13 @@
     <t>1993</t>
   </si>
   <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
     <t>1996</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1995</t>
   </si>
   <si>
     <t>1998</t>
@@ -884,7 +884,7 @@
         <v>197</v>
       </c>
       <c r="J2" t="n">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="K2" t="n">
         <v>9.0</v>
@@ -899,7 +899,7 @@
         <v>26.0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P2" t="n">
         <v>1.0</v>
@@ -908,10 +908,10 @@
         <v>3.0</v>
       </c>
       <c r="R2" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
@@ -923,16 +923,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>117.0</v>
+        <v>124.0</v>
       </c>
       <c r="X2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="3">
@@ -940,7 +940,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>355.0</v>
+        <v>356.0</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -964,7 +964,7 @@
         <v>198</v>
       </c>
       <c r="J3" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K3" t="n">
         <v>7.0</v>
@@ -988,7 +988,7 @@
         <v>1.0</v>
       </c>
       <c r="R3" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="S3" t="n">
         <v>25.0</v>
@@ -1003,16 +1003,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>128.0</v>
+        <v>137.0</v>
       </c>
       <c r="X3" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>69.0</v>
+        <v>65.6</v>
       </c>
     </row>
     <row r="4">
@@ -1020,7 +1020,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>888.0</v>
+        <v>889.0</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1100,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>565.0</v>
+        <v>566.0</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -1124,7 +1124,7 @@
         <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>23.6</v>
+        <v>24.6</v>
       </c>
       <c r="K5" t="n">
         <v>7.0</v>
@@ -1145,13 +1145,13 @@
         <v>1.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.0</v>
+        <v>77.0</v>
       </c>
       <c r="R5" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="S5" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -1163,16 +1163,16 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>102.0</v>
+        <v>108.0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y5" t="n">
         <v>29.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>45.3</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="6">
@@ -1180,7 +1180,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>1921.0</v>
+        <v>1929.0</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -1204,7 +1204,7 @@
         <v>201</v>
       </c>
       <c r="J6" t="n">
-        <v>24.2</v>
+        <v>25.2</v>
       </c>
       <c r="K6" t="n">
         <v>7.0</v>
@@ -1219,7 +1219,7 @@
         <v>20.0</v>
       </c>
       <c r="O6" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="P6" t="n">
         <v>1.0</v>
@@ -1243,16 +1243,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>104.0</v>
+        <v>111.0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y6" t="n">
         <v>17.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>46.9</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="7">
@@ -1260,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2661.0</v>
+        <v>2671.0</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
@@ -1340,7 +1340,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>1928.0</v>
+        <v>1936.0</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1364,7 +1364,7 @@
         <v>197</v>
       </c>
       <c r="J8" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="K8" t="n">
         <v>6.0</v>
@@ -1376,22 +1376,22 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="O8" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="P8" t="n">
         <v>3.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="R8" t="n">
         <v>14.0</v>
       </c>
       <c r="S8" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -1403,16 +1403,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>137.0</v>
+        <v>140.0</v>
       </c>
       <c r="X8" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>47.8</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>905.0</v>
+        <v>906.0</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -1444,7 +1444,7 @@
         <v>203</v>
       </c>
       <c r="J9" t="n">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="K9" t="n">
         <v>5.0</v>
@@ -1456,7 +1456,7 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="O9" t="n">
         <v>33.0</v>
@@ -1465,7 +1465,7 @@
         <v>2.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.0</v>
+        <v>89.0</v>
       </c>
       <c r="R9" t="n">
         <v>37.0</v>
@@ -1483,16 +1483,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>133.0</v>
+        <v>136.0</v>
       </c>
       <c r="X9" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="10">
@@ -1500,7 +1500,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>2423.0</v>
+        <v>2433.0</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -1524,7 +1524,7 @@
         <v>200</v>
       </c>
       <c r="J10" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K10" t="n">
         <v>5.0</v>
@@ -1539,7 +1539,7 @@
         <v>28.0</v>
       </c>
       <c r="O10" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="P10" t="n">
         <v>1.0</v>
@@ -1548,10 +1548,10 @@
         <v>4.0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1563,16 +1563,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>128.0</v>
+        <v>135.0</v>
       </c>
       <c r="X10" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>71.3</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="11">
@@ -1580,7 +1580,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>1694.0</v>
+        <v>1701.0</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
@@ -1604,7 +1604,7 @@
         <v>204</v>
       </c>
       <c r="J11" t="n">
-        <v>15.7</v>
+        <v>16.7</v>
       </c>
       <c r="K11" t="n">
         <v>5.0</v>
@@ -1619,19 +1619,19 @@
         <v>27.0</v>
       </c>
       <c r="O11" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="P11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="R11" t="n">
         <v>5.0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="T11" t="n">
         <v>1.0</v>
@@ -1643,16 +1643,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>128.0</v>
+        <v>138.0</v>
       </c>
       <c r="X11" t="n">
         <v>14.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>41.2</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="12">
@@ -1660,7 +1660,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>719.0</v>
+        <v>720.0</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
@@ -1684,7 +1684,7 @@
         <v>205</v>
       </c>
       <c r="J12" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.0</v>
@@ -1696,16 +1696,16 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="O12" t="n">
         <v>4.0</v>
       </c>
       <c r="P12" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="R12" t="n">
         <v>13.0</v>
@@ -1723,16 +1723,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
       <c r="X12" t="n">
         <v>13.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.7</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="13">
@@ -1740,7 +1740,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>1943.0</v>
+        <v>1951.0</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
@@ -1820,7 +1820,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2605.0</v>
+        <v>2020.0</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -1829,10 +1829,10 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>150</v>
@@ -1844,7 +1844,7 @@
         <v>201</v>
       </c>
       <c r="J14" t="n">
-        <v>24.7</v>
+        <v>27.0</v>
       </c>
       <c r="K14" t="n">
         <v>4.0</v>
@@ -1856,43 +1856,43 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.0</v>
+        <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W14" t="n">
-        <v>113.0</v>
+        <v>23.0</v>
       </c>
       <c r="X14" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>41.3</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -1900,7 +1900,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1872.0</v>
+        <v>109.0</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
@@ -1909,10 +1909,10 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>150</v>
@@ -1921,13 +1921,13 @@
         <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J15" t="n">
-        <v>16.5</v>
+        <v>10.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
@@ -1936,43 +1936,43 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="O15" t="n">
-        <v>33.0</v>
+        <v>18.0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="S15" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>114.0</v>
+        <v>30.0</v>
       </c>
       <c r="X15" t="n">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>72.2</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="16">
@@ -1980,19 +1980,19 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>2012.0</v>
+        <v>2366.0</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>150</v>
@@ -2001,13 +2001,13 @@
         <v>165</v>
       </c>
       <c r="I16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J16" t="n">
-        <v>26.0</v>
+        <v>22.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
@@ -2016,22 +2016,22 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="O16" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -2040,19 +2040,19 @@
         <v>1.0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>23.0</v>
+        <v>104.0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.0</v>
+        <v>82.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>100.0</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="17">
@@ -2060,16 +2060,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>32.0</v>
+        <v>2615.0</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2081,58 +2081,58 @@
         <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J17" t="n">
-        <v>18.7</v>
+        <v>25.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="P17" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.0</v>
+        <v>155.0</v>
       </c>
       <c r="R17" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>97.0</v>
+        <v>114.0</v>
       </c>
       <c r="X17" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>60.3</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="18">
@@ -2140,19 +2140,19 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>109.0</v>
+        <v>1880.0</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>150</v>
@@ -2161,10 +2161,10 @@
         <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J18" t="n">
-        <v>10.0</v>
+        <v>17.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
@@ -2176,43 +2176,43 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="O18" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="P18" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" t="n">
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>30.0</v>
+        <v>128.0</v>
       </c>
       <c r="X18" t="n">
-        <v>19.0</v>
+        <v>43.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>38.0</v>
+        <v>74.1</v>
       </c>
     </row>
     <row r="19">
@@ -2220,16 +2220,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2005.0</v>
+        <v>32.0</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2244,7 +2244,7 @@
         <v>208</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>18.7</v>
       </c>
       <c r="K19" t="n">
         <v>3.0</v>
@@ -2256,43 +2256,43 @@
         <v>1.0</v>
       </c>
       <c r="N19" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V19" t="n">
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>13.0</v>
+        <v>97.0</v>
       </c>
       <c r="X19" t="n">
-        <v>5.0</v>
+        <v>41.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>100.0</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="20">
@@ -2300,13 +2300,13 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2356.0</v>
+        <v>2013.0</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>140</v>
@@ -2321,58 +2321,58 @@
         <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J20" t="n">
-        <v>21.8</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N20" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="O20" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="P20" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R20" t="n">
         <v>4.0</v>
       </c>
-      <c r="R20" t="n">
-        <v>26.0</v>
-      </c>
       <c r="S20" t="n">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>102.0</v>
+        <v>14.0</v>
       </c>
       <c r="X20" t="n">
-        <v>81.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>59.1</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="21">
@@ -2380,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2701.0</v>
+        <v>2711.0</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
@@ -2404,7 +2404,7 @@
         <v>201</v>
       </c>
       <c r="J21" t="n">
-        <v>21.2</v>
+        <v>22.2</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
@@ -2416,7 +2416,7 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="O21" t="n">
         <v>5.0</v>
@@ -2437,22 +2437,22 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" t="n">
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="X21" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="Y21" t="n">
         <v>36.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>53.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="22">
@@ -2460,7 +2460,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>285.0</v>
+        <v>286.0</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -2484,7 +2484,7 @@
         <v>209</v>
       </c>
       <c r="J22" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.0</v>
@@ -2496,10 +2496,10 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O22" t="n">
         <v>15.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>14.0</v>
       </c>
       <c r="P22" t="n">
         <v>5.0</v>
@@ -2523,16 +2523,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="X22" t="n">
         <v>33.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>48.5</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="23">
@@ -2540,7 +2540,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>937.0</v>
+        <v>938.0</v>
       </c>
       <c r="C23" t="s">
         <v>92</v>
@@ -2564,7 +2564,7 @@
         <v>209</v>
       </c>
       <c r="J23" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="K23" t="n">
         <v>2.0</v>
@@ -2576,7 +2576,7 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O23" t="n">
         <v>2.0</v>
@@ -2585,13 +2585,13 @@
         <v>2.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="R23" t="n">
         <v>6.0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -2603,16 +2603,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="X23" t="n">
         <v>10.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>41.7</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="24">
@@ -2620,7 +2620,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>941.0</v>
+        <v>942.0</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
@@ -2644,7 +2644,7 @@
         <v>205</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K24" t="n">
         <v>2.0</v>
@@ -2656,7 +2656,7 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O24" t="n">
         <v>0.0</v>
@@ -2665,10 +2665,10 @@
         <v>0.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S24" t="n">
         <v>1.0</v>
@@ -2683,7 +2683,7 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="X24" t="n">
         <v>0.0</v>
@@ -2700,7 +2700,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>347.0</v>
+        <v>348.0</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
@@ -2721,10 +2721,10 @@
         <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J25" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K25" t="n">
         <v>2.0</v>
@@ -2736,7 +2736,7 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="O25" t="n">
         <v>31.0</v>
@@ -2745,7 +2745,7 @@
         <v>15.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="R25" t="n">
         <v>16.0</v>
@@ -2763,16 +2763,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="X25" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>32.5</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="26">
@@ -2780,7 +2780,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
@@ -2804,7 +2804,7 @@
         <v>197</v>
       </c>
       <c r="J26" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="K26" t="n">
         <v>1.0</v>
@@ -2846,13 +2846,13 @@
         <v>27.0</v>
       </c>
       <c r="X26" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>105.0</v>
       </c>
-      <c r="Y26" t="n">
-        <v>103.0</v>
-      </c>
       <c r="Z26" t="n">
-        <v>50.5</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="27">
@@ -2860,7 +2860,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>500.0</v>
+        <v>501.0</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
@@ -2940,7 +2940,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>699.0</v>
+        <v>700.0</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
@@ -3020,7 +3020,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1252.0</v>
+        <v>1255.0</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
@@ -3100,7 +3100,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1616.0</v>
+        <v>1623.0</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
@@ -3124,7 +3124,7 @@
         <v>212</v>
       </c>
       <c r="J30" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
@@ -3145,7 +3145,7 @@
         <v>4.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.0</v>
+        <v>150.0</v>
       </c>
       <c r="R30" t="n">
         <v>14.0</v>
@@ -3163,7 +3163,7 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>114.0</v>
+        <v>118.0</v>
       </c>
       <c r="X30" t="n">
         <v>13.0</v>
@@ -3180,7 +3180,7 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1759.0</v>
+        <v>1767.0</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
@@ -3204,7 +3204,7 @@
         <v>212</v>
       </c>
       <c r="J31" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
@@ -3219,13 +3219,13 @@
         <v>19.0</v>
       </c>
       <c r="O31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P31" t="n">
         <v>1.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="R31" t="n">
         <v>32.0</v>
@@ -3243,16 +3243,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>117.0</v>
+        <v>122.0</v>
       </c>
       <c r="X31" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="32">
@@ -3260,7 +3260,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="C32" t="s">
         <v>101</v>
@@ -3284,7 +3284,7 @@
         <v>205</v>
       </c>
       <c r="J32" t="n">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
@@ -3299,7 +3299,7 @@
         <v>2.0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P32" t="n">
         <v>0.0</v>
@@ -3308,7 +3308,7 @@
         <v>0.0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S32" t="n">
         <v>1.0</v>
@@ -3323,7 +3323,7 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="X32" t="n">
         <v>4.0</v>
@@ -3340,7 +3340,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>262.0</v>
+        <v>263.0</v>
       </c>
       <c r="C33" t="s">
         <v>102</v>
@@ -3361,7 +3361,7 @@
         <v>182</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J33" t="n">
         <v>6.9</v>
@@ -3420,7 +3420,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>576.0</v>
+        <v>577.0</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
@@ -3500,7 +3500,7 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1134.0</v>
+        <v>1137.0</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
@@ -3580,7 +3580,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1178.0</v>
+        <v>1181.0</v>
       </c>
       <c r="C36" t="s">
         <v>105</v>
@@ -3649,10 +3649,10 @@
         <v>4.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>30.8</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="37">
@@ -3660,7 +3660,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1586.0</v>
+        <v>1593.0</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -3684,7 +3684,7 @@
         <v>197</v>
       </c>
       <c r="J37" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
@@ -3723,16 +3723,16 @@
         <v>1.0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="X37" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="Y37" t="n">
         <v>13.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>65.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="38">
@@ -3740,7 +3740,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>429.0</v>
+        <v>430.0</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -3820,7 +3820,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>530.0</v>
+        <v>531.0</v>
       </c>
       <c r="C39" t="s">
         <v>108</v>
@@ -3900,7 +3900,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>603.0</v>
+        <v>604.0</v>
       </c>
       <c r="C40" t="s">
         <v>109</v>
@@ -3980,7 +3980,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1049.0</v>
+        <v>1051.0</v>
       </c>
       <c r="C41" t="s">
         <v>110</v>
@@ -4001,10 +4001,10 @@
         <v>190</v>
       </c>
       <c r="I41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J41" t="n">
-        <v>17.7</v>
+        <v>18.6</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -4016,7 +4016,7 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="O41" t="n">
         <v>22.0</v>
@@ -4025,7 +4025,7 @@
         <v>1.0</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.0</v>
+        <v>65.0</v>
       </c>
       <c r="R41" t="n">
         <v>9.0</v>
@@ -4043,16 +4043,16 @@
         <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="X41" t="n">
         <v>6.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>30.0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="42">
@@ -4060,7 +4060,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1877.0</v>
+        <v>1885.0</v>
       </c>
       <c r="C42" t="s">
         <v>111</v>
@@ -4140,7 +4140,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>551.0</v>
+        <v>552.0</v>
       </c>
       <c r="C43" t="s">
         <v>112</v>
@@ -4161,7 +4161,7 @@
         <v>192</v>
       </c>
       <c r="I43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J43" t="n">
         <v>1.2</v>
@@ -4220,7 +4220,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>796.0</v>
+        <v>797.0</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
@@ -4300,7 +4300,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>848.0</v>
+        <v>849.0</v>
       </c>
       <c r="C45" t="s">
         <v>114</v>
@@ -4321,7 +4321,7 @@
         <v>194</v>
       </c>
       <c r="I45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J45" t="n">
         <v>4.7</v>
@@ -4380,7 +4380,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1726.0</v>
+        <v>1733.0</v>
       </c>
       <c r="C46" t="s">
         <v>115</v>
@@ -4460,7 +4460,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1850.0</v>
+        <v>1858.0</v>
       </c>
       <c r="C47" t="s">
         <v>116</v>
@@ -4655,7 +4655,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="n">
-        <v>347.0</v>
+        <v>348.0</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -4676,28 +4676,28 @@
         <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="N2" t="n">
         <v>14.0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P2" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -4715,43 +4715,43 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>8.9</v>
+        <v>9.0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>9.0</v>
       </c>
       <c r="X2" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.0</v>
+        <v>147.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -4759,7 +4759,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="n">
-        <v>719.0</v>
+        <v>720.0</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -4783,16 +4783,16 @@
         <v>205</v>
       </c>
       <c r="J3" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K3" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="N3" t="n">
         <v>6.0</v>
@@ -4819,40 +4819,40 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="W3" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.3</v>
+        <v>8.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.0</v>
+        <v>65.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.0</v>
+        <v>103.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AD3" t="n">
         <v>0.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" t="n">
         <v>0.31</v>
@@ -4863,7 +4863,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>1694.0</v>
+        <v>1701.0</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -4887,25 +4887,25 @@
         <v>204</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>15.7</v>
+        <v>16.7</v>
       </c>
       <c r="N4" t="n">
         <v>6.0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q4" t="n">
         <v>6.0</v>
@@ -4923,54 +4923,54 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.4</v>
+        <v>3.0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.4</v>
+        <v>3.0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>5.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>64.0</v>
+        <v>72.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.0</v>
+        <v>133.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>2356.0</v>
+        <v>2366.0</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>120</v>
@@ -4985,35 +4985,35 @@
         <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="N5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O5" t="n">
         <v>1.0</v>
       </c>
       <c r="P5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6.0</v>
       </c>
-      <c r="Q5" t="n">
-        <v>5.0</v>
-      </c>
       <c r="R5" t="n">
         <v>0.0</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
@@ -5042,39 +5042,39 @@
         <v>6.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="AB5" t="n">
         <v>29.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>2605.0</v>
+        <v>2615.0</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>118</v>
@@ -5089,31 +5089,31 @@
         <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
         <v>201</v>
       </c>
       <c r="J6" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K6" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>24.7</v>
+        <v>25.4</v>
       </c>
       <c r="N6" t="n">
         <v>5.0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q6" t="n">
         <v>3.0</v>
@@ -5137,37 +5137,37 @@
         <v>3.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.7</v>
+        <v>9.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.0</v>
+        <v>101.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="AC6" t="n">
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="AF6" t="n">
         <v>0.12</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -5175,7 +5175,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="n">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -5199,7 +5199,7 @@
         <v>197</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K7" t="n">
         <v>19.0</v>
@@ -5208,7 +5208,7 @@
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="N7" t="n">
         <v>3.0</v>
@@ -5235,28 +5235,28 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>9.0</v>
+        <v>9.2</v>
       </c>
       <c r="W7" t="n">
-        <v>9.0</v>
+        <v>9.2</v>
       </c>
       <c r="X7" t="n">
         <v>1.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD7" t="n">
         <v>0.06</v>
@@ -5265,7 +5265,7 @@
         <v>0.23</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AG7" t="n">
         <v>0.23</v>
@@ -5279,7 +5279,7 @@
         <v>64</v>
       </c>
       <c r="B8" t="n">
-        <v>1049.0</v>
+        <v>1051.0</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
@@ -5300,19 +5300,19 @@
         <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J8" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K8" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>17.7</v>
+        <v>18.6</v>
       </c>
       <c r="N8" t="n">
         <v>3.0</v>
@@ -5345,54 +5345,54 @@
         <v>3.1</v>
       </c>
       <c r="X8" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
       <c r="AC8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>355.0</v>
+        <v>286.0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
         <v>149</v>
@@ -5401,22 +5401,22 @@
         <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="J9" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="K9" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
+        <v>6.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>686.0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.0</v>
+        <v>7.6</v>
       </c>
       <c r="N9" t="n">
         <v>2.0</v>
@@ -5434,69 +5434,69 @@
         <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="X9" t="n">
         <v>0.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="AD9" t="n">
         <v>0.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>1616.0</v>
+        <v>356.0</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
         <v>149</v>
@@ -5505,31 +5505,31 @@
         <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J10" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>20.4</v>
+        <v>24.0</v>
       </c>
       <c r="N10" t="n">
         <v>2.0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q10" t="n">
         <v>2.0</v>
@@ -5541,66 +5541,66 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.3</v>
+        <v>2.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>52.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>70.0</v>
+        <v>44.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>83.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="n">
-        <v>1759.0</v>
+        <v>1623.0</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
         <v>149</v>
@@ -5609,31 +5609,31 @@
         <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11" t="s">
         <v>212</v>
       </c>
       <c r="J11" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="K11" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>21.0</v>
+        <v>21.4</v>
       </c>
       <c r="N11" t="n">
         <v>2.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q11" t="n">
         <v>2.0</v>
@@ -5651,60 +5651,60 @@
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.0</v>
+        <v>9.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.0</v>
+        <v>56.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>45.0</v>
+        <v>76.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>45.0</v>
+        <v>91.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>1872.0</v>
+        <v>1767.0</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
         <v>149</v>
@@ -5713,22 +5713,22 @@
         <v>150</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="J12" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="K12" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>16.5</v>
+        <v>22.0</v>
       </c>
       <c r="N12" t="n">
         <v>2.0</v>
@@ -5749,49 +5749,49 @@
         <v>0.0</v>
       </c>
       <c r="T12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>74.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>32.0</v>
+        <v>53.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AD12" t="n">
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
@@ -5799,19 +5799,19 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>109.0</v>
+        <v>1880.0</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
         <v>150</v>
@@ -5820,28 +5820,28 @@
         <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J13" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="K13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>903.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>10.0</v>
+        <v>17.5</v>
       </c>
       <c r="N13" t="n">
         <v>2.0</v>
       </c>
       <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.0</v>
       </c>
       <c r="Q13" t="n">
         <v>2.0</v>
@@ -5859,60 +5859,60 @@
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.0</v>
+        <v>79.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>52.0</v>
+        <v>33.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>1928.0</v>
+        <v>109.0</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
         <v>148</v>
@@ -5921,310 +5921,310 @@
         <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J14" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="K14" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>914.0</v>
       </c>
       <c r="M14" t="n">
-        <v>17.6</v>
+        <v>10.2</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="P14" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X14" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>124.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>79.0</v>
+        <v>55.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
-        <v>285.0</v>
+        <v>1936.0</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="J15" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="K15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O15" t="n">
         <v>5.0</v>
       </c>
-      <c r="L15" t="n">
-        <v>613.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q15" t="n">
         <v>1.0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T15" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W15" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.1</v>
+        <v>6.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.0</v>
+        <v>125.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>37.0</v>
+        <v>84.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0</v>
+        <v>0.27</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>603.0</v>
+        <v>2711.0</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>150</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="I16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J16" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="K16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z16" t="n">
         <v>5.0</v>
       </c>
-      <c r="L16" t="n">
-        <v>595.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>24.0</v>
-      </c>
       <c r="AA16" t="n">
-        <v>9.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AD16" t="n">
         <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.4</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B17" t="n">
-        <v>699.0</v>
+        <v>604.0</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
         <v>149</v>
@@ -6233,99 +6233,99 @@
         <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>9.0</v>
       </c>
-      <c r="K17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>179.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AB17" t="n">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>888.0</v>
+        <v>700.0</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
         <v>140</v>
@@ -6337,22 +6337,22 @@
         <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J18" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="K18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>180.0</v>
       </c>
       <c r="M18" t="n">
-        <v>14.5</v>
+        <v>2.0</v>
       </c>
       <c r="N18" t="n">
         <v>1.0</v>
@@ -6373,63 +6373,63 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>55.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.07</v>
+        <v>0.5</v>
       </c>
       <c r="AD18" t="n">
         <v>0.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.07</v>
+        <v>0.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.07</v>
+        <v>0.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.07</v>
+        <v>0.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>905.0</v>
+        <v>889.0</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
         <v>140</v>
@@ -6441,31 +6441,31 @@
         <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J19" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="K19" t="n">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>23.9</v>
+        <v>14.5</v>
       </c>
       <c r="N19" t="n">
         <v>1.0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
@@ -6477,63 +6477,63 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="X19" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>78.0</v>
+        <v>55.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>941.0</v>
+        <v>906.0</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>140</v>
@@ -6545,32 +6545,32 @@
         <v>150</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J20" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P20" t="n">
         <v>3.0</v>
       </c>
-      <c r="K20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q20" t="n">
         <v>1.0</v>
       </c>
@@ -6581,66 +6581,66 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5</v>
+        <v>6.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>10.0</v>
+        <v>85.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.0</v>
+        <v>52.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" t="n">
-        <v>1252.0</v>
+        <v>942.0</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
         <v>149</v>
@@ -6649,22 +6649,22 @@
         <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I21" t="s">
         <v>205</v>
       </c>
       <c r="J21" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="K21" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0</v>
+        <v>170.0</v>
       </c>
       <c r="M21" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="N21" t="n">
         <v>1.0</v>
@@ -6685,60 +6685,60 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="W21" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
       <c r="AD21" t="n">
         <v>0.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.15</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>2423.0</v>
+        <v>1255.0</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>118</v>
@@ -6753,135 +6753,135 @@
         <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J22" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="K22" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
+        <v>4.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>404.0</v>
       </c>
       <c r="M22" t="n">
-        <v>26.0</v>
+        <v>4.5</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB22" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>16.0</v>
-      </c>
       <c r="AC22" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.07</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
-        <v>32.0</v>
+        <v>2433.0</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
         <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
         <v>150</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J23" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="K23" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="n">
-        <v>18.7</v>
+        <v>27.0</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
@@ -6893,66 +6893,66 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>61.0</v>
+        <v>97.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>551.0</v>
+        <v>32.0</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -6961,22 +6961,22 @@
         <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J24" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>105.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M24" t="n">
-        <v>1.2</v>
+        <v>18.7</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
@@ -6997,66 +6997,66 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>0.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="Z24" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="AB24" t="n">
         <v>3.0</v>
       </c>
-      <c r="AA24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AC24" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1586.0</v>
+        <v>79.0</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -7065,102 +7065,102 @@
         <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="I25" t="s">
         <v>197</v>
       </c>
       <c r="J25" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>811.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="L25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M25" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T25" t="n">
         <v>9.0</v>
       </c>
-      <c r="N25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U25" t="n">
         <v>0.0</v>
       </c>
       <c r="V25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X25" t="n">
         <v>0.4</v>
       </c>
-      <c r="W25" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF25" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B26" t="n">
-        <v>1921.0</v>
+        <v>552.0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -7169,99 +7169,99 @@
         <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J26" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>105.0</v>
       </c>
       <c r="M26" t="n">
-        <v>24.2</v>
+        <v>1.2</v>
       </c>
       <c r="N26" t="n">
         <v>1.0</v>
       </c>
       <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA26" t="n">
         <v>2.0</v>
       </c>
-      <c r="P26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="AB26" t="n">
         <v>7.0</v>
       </c>
-      <c r="U26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>84.0</v>
-      </c>
       <c r="AC26" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.12</v>
+        <v>0.86</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.12</v>
+        <v>0.86</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>2701.0</v>
+        <v>1593.0</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
         <v>141</v>
@@ -7273,22 +7273,22 @@
         <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J27" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="K27" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L27" t="e">
-        <v>#N/A</v>
+        <v>9.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>901.0</v>
       </c>
       <c r="M27" t="n">
-        <v>21.2</v>
+        <v>10.0</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
@@ -7309,46 +7309,46 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="W27" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="X27" t="n">
         <v>0.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="Z27" t="n">
         <v>5.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AD27" t="n">
         <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AH27" t="n">
         <v>0.06</v>
@@ -7356,55 +7356,55 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>429.0</v>
+        <v>1929.0</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
         <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="L28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0</v>
+        <v>25.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R28" t="n">
         <v>0.0</v>
@@ -7413,63 +7413,63 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>2.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0</v>
+        <v>3.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B29" t="n">
-        <v>500.0</v>
+        <v>430.0</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
         <v>145</v>
@@ -7481,22 +7481,22 @@
         <v>150</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J29" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
       </c>
       <c r="L29" t="n">
-        <v>65.0</v>
+        <v>1.0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -7517,31 +7517,31 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" t="n">
         <v>0.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -7559,24 +7559,24 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.71</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B30" t="n">
-        <v>530.0</v>
+        <v>501.0</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
         <v>149</v>
@@ -7585,67 +7585,67 @@
         <v>150</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J30" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" t="n">
         <v>2.0</v>
       </c>
-      <c r="L30" t="n">
-        <v>235.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>12.0</v>
-      </c>
       <c r="AB30" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
@@ -7663,21 +7663,21 @@
         <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
-        <v>937.0</v>
+        <v>531.0</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
         <v>141</v>
@@ -7689,68 +7689,68 @@
         <v>150</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB31" t="n">
         <v>7.0</v>
       </c>
-      <c r="K31" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>490.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.0</v>
-      </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
@@ -7767,24 +7767,24 @@
         <v>0.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B32" t="n">
-        <v>1877.0</v>
+        <v>938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
         <v>149</v>
@@ -7793,22 +7793,22 @@
         <v>150</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.0</v>
+        <v>580.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0</v>
+        <v>6.4</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -7829,31 +7829,31 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
@@ -7871,24 +7871,24 @@
         <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B33" t="n">
-        <v>1943.0</v>
+        <v>1885.0</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
         <v>149</v>
@@ -7897,31 +7897,31 @@
         <v>150</v>
       </c>
       <c r="H33" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J33" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="K33" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="L33" t="n">
-        <v>961.0</v>
+        <v>1.0</v>
       </c>
       <c r="M33" t="n">
-        <v>10.7</v>
+        <v>0.0</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -7933,66 +7933,66 @@
         <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.7</v>
+        <v>0.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.19</v>
+        <v>0.0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.19</v>
+        <v>0.0</v>
       </c>
       <c r="AF33" t="n">
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.19</v>
+        <v>0.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>2012.0</v>
+        <v>1951.0</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>149</v>
@@ -8001,31 +8001,31 @@
         <v>150</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J34" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="K34" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
+        <v>9.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>961.0</v>
       </c>
       <c r="M34" t="n">
-        <v>26.0</v>
+        <v>10.7</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q34" t="n">
         <v>0.0</v>
@@ -8037,66 +8037,66 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1</v>
+        <v>2.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AF34" t="n">
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>2661.0</v>
+        <v>2020.0</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
         <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
         <v>149</v>
@@ -8105,22 +8105,22 @@
         <v>150</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J35" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="K35" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
       <c r="M35" t="n">
-        <v>16.8</v>
+        <v>27.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -8141,31 +8141,31 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>58.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
@@ -8183,57 +8183,57 @@
         <v>0.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B36" t="n">
-        <v>79.0</v>
+        <v>2671.0</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
         <v>150</v>
       </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I36" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J36" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="L36" t="e">
         <v>#N/A</v>
       </c>
       <c r="M36" t="n">
-        <v>19.4</v>
+        <v>16.8</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" t="n">
         <v>0.0</v>
@@ -8245,46 +8245,46 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="W36" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.0</v>
+        <v>1.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AF36" t="n">
         <v>0.0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AH36" t="n">
         <v>0.03</v>
@@ -8295,7 +8295,7 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
@@ -8319,16 +8319,16 @@
         <v>205</v>
       </c>
       <c r="J37" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K37" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L37" t="e">
         <v>#N/A</v>
       </c>
       <c r="M37" t="n">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -8399,7 +8399,7 @@
         <v>56</v>
       </c>
       <c r="B38" t="n">
-        <v>262.0</v>
+        <v>263.0</v>
       </c>
       <c r="C38" t="s">
         <v>102</v>
@@ -8420,7 +8420,7 @@
         <v>182</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J38" t="n">
         <v>13.0</v>
@@ -8503,7 +8503,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="n">
-        <v>565.0</v>
+        <v>566.0</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -8527,16 +8527,16 @@
         <v>200</v>
       </c>
       <c r="J39" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="L39" t="e">
         <v>#N/A</v>
       </c>
       <c r="M39" t="n">
-        <v>23.6</v>
+        <v>24.6</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -8575,28 +8575,28 @@
         <v>2.9</v>
       </c>
       <c r="Z39" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="AC39" t="n">
         <v>0.0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AF39" t="n">
         <v>0.0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AH39" t="n">
         <v>0.0</v>
@@ -8607,7 +8607,7 @@
         <v>57</v>
       </c>
       <c r="B40" t="n">
-        <v>576.0</v>
+        <v>577.0</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
@@ -8711,7 +8711,7 @@
         <v>67</v>
       </c>
       <c r="B41" t="n">
-        <v>796.0</v>
+        <v>797.0</v>
       </c>
       <c r="C41" t="s">
         <v>113</v>
@@ -8815,7 +8815,7 @@
         <v>68</v>
       </c>
       <c r="B42" t="n">
-        <v>848.0</v>
+        <v>849.0</v>
       </c>
       <c r="C42" t="s">
         <v>114</v>
@@ -8836,7 +8836,7 @@
         <v>194</v>
       </c>
       <c r="I42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J42" t="n">
         <v>15.0</v>
@@ -8919,7 +8919,7 @@
         <v>58</v>
       </c>
       <c r="B43" t="n">
-        <v>1134.0</v>
+        <v>1137.0</v>
       </c>
       <c r="C43" t="s">
         <v>104</v>
@@ -9023,7 +9023,7 @@
         <v>59</v>
       </c>
       <c r="B44" t="n">
-        <v>1178.0</v>
+        <v>1181.0</v>
       </c>
       <c r="C44" t="s">
         <v>105</v>
@@ -9047,13 +9047,13 @@
         <v>204</v>
       </c>
       <c r="J44" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K44" t="n">
         <v>4.0</v>
       </c>
       <c r="L44" t="n">
-        <v>398.0</v>
+        <v>399.0</v>
       </c>
       <c r="M44" t="n">
         <v>4.4</v>
@@ -9127,7 +9127,7 @@
         <v>69</v>
       </c>
       <c r="B45" t="n">
-        <v>1726.0</v>
+        <v>1733.0</v>
       </c>
       <c r="C45" t="s">
         <v>115</v>
@@ -9231,7 +9231,7 @@
         <v>70</v>
       </c>
       <c r="B46" t="n">
-        <v>1850.0</v>
+        <v>1858.0</v>
       </c>
       <c r="C46" t="s">
         <v>116</v>
@@ -9255,13 +9255,13 @@
         <v>213</v>
       </c>
       <c r="J46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K46" t="n">
         <v>3.0</v>
       </c>
       <c r="L46" t="n">
-        <v>320.0</v>
+        <v>321.0</v>
       </c>
       <c r="M46" t="n">
         <v>3.6</v>
@@ -9332,13 +9332,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" t="n">
-        <v>2005.0</v>
+        <v>2013.0</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
         <v>118</v>
@@ -9353,22 +9353,22 @@
         <v>150</v>
       </c>
       <c r="H47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J47" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K47" t="n">
         <v>2.0</v>
       </c>
       <c r="L47" t="n">
-        <v>201.0</v>
+        <v>226.0</v>
       </c>
       <c r="M47" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -9410,7 +9410,7 @@
         <v>3.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB47" t="n">
         <v>4.0</v>
@@ -9431,7 +9431,7 @@
         <v>0.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
